--- a/Emission_Factors.xlsx
+++ b/Emission_Factors.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BC31D-8934-4E9F-9D04-1BF3535AF22C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E97E6-F821-42C9-824F-867227BB3ABA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Biomass</t>
   </si>
@@ -28,9 +34,6 @@
     <t>Actual Aggregated</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Actual Consumption</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>RU</t>
   </si>
   <si>
@@ -149,13 +149,184 @@
   </si>
   <si>
     <t>GB</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>513 from https://www.sciencedirect.com/science/article/pii/S1361920916307933#b0085</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Assumed from ElectricityMap</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RU_KGD</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>from  https://www.sciencedirect.com/science/article/pii/S1361920916307933#b0085</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UA_BEI</t>
+  </si>
+  <si>
+    <t>Assumed to be same as Ukraine</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE_AT_LU</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IE_SEM</t>
+  </si>
+  <si>
+    <t>IT_North</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>IT_REST</t>
+  </si>
+  <si>
+    <t>NEED DATA</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Biomass_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Brown coal/Lignite_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Coal-derived gas_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Gas_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Hard coal_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Oil_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Oil shale_Gen</t>
+  </si>
+  <si>
+    <t>Fossil Peat_Gen</t>
+  </si>
+  <si>
+    <t>Geothermal_Gen</t>
+  </si>
+  <si>
+    <t>Hydro Pumped Storage_Gen</t>
+  </si>
+  <si>
+    <t>Hydro Run-of-river and poundage_Gen</t>
+  </si>
+  <si>
+    <t>Hydro Water Reservoir_Gen</t>
+  </si>
+  <si>
+    <t>Marine_Gen</t>
+  </si>
+  <si>
+    <t>Nuclear_Gen</t>
+  </si>
+  <si>
+    <t>Other_Gen</t>
+  </si>
+  <si>
+    <t>Other renewable_Gen</t>
+  </si>
+  <si>
+    <t>Solar_Gen</t>
+  </si>
+  <si>
+    <t>Waste_Gen</t>
+  </si>
+  <si>
+    <t>Wind Offshore_Gen</t>
+  </si>
+  <si>
+    <t>Wind Onshore_Gen</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +338,21 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -244,19 +424,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,601 +717,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>1240</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5">
         <v>1667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9">
         <v>1266</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15">
         <v>1071</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C29">
         <v>979</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>513</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40">
+        <v>600</v>
+      </c>
+      <c r="M40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42">
+        <v>512</v>
+      </c>
+      <c r="M42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43">
+        <v>627</v>
+      </c>
+      <c r="M43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44">
+        <v>365</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>480</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46">
+        <v>600</v>
+      </c>
+      <c r="M46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+      <c r="M48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="2"/>
       <c r="C51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58">
+        <v>300</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>448</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>512</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76">
+        <v>627</v>
+      </c>
+      <c r="D76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59">
+      <c r="C77">
         <v>365</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60">
-        <v>762</v>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>480</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>600</v>
+      </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <v>600</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>